--- a/recibo de pagamento (exemplo).xlsx
+++ b/recibo de pagamento (exemplo).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>Folha Mensal</t>
   </si>
@@ -38,10 +38,13 @@
     <t>Janeiro de 2025</t>
   </si>
   <si>
-    <t>NOME DO FUNCIONARIO</t>
+    <t>A TRANSPORTAR</t>
   </si>
   <si>
-    <t>A TRANSPORTAR</t>
+    <t>NOME DO FUNCIONARIO EMPRESA 1</t>
+  </si>
+  <si>
+    <t>NOME DO FUNCIONARIO EMPRESA 2</t>
   </si>
 </sst>
 </file>
@@ -479,11 +482,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC112"/>
+  <dimension ref="B1:AC224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -592,7 +593,7 @@
     <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1104,7 +1105,7 @@
     <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1384,7 +1385,7 @@
     <row r="34" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1896,7 +1897,7 @@
     <row r="51" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2176,7 +2177,7 @@
     <row r="60" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2966,7 +2967,7 @@
     <row r="90" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3655,6 +3656,2858 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="9"/>
     </row>
+    <row r="113" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+    </row>
+    <row r="114" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="8"/>
+      <c r="X115" s="8"/>
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+      <c r="C116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+    </row>
+    <row r="117" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
+    </row>
+    <row r="118" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="11"/>
+      <c r="W118" s="11"/>
+      <c r="X118" s="11"/>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="11"/>
+    </row>
+    <row r="119" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+    </row>
+    <row r="120" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+    </row>
+    <row r="121" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+    </row>
+    <row r="122" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+    </row>
+    <row r="123" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+    </row>
+    <row r="124" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+    </row>
+    <row r="125" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+    </row>
+    <row r="126" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+    </row>
+    <row r="127" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+    </row>
+    <row r="128" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+    </row>
+    <row r="129" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+    </row>
+    <row r="130" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+    </row>
+    <row r="131" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
+      <c r="R131" s="8"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="8"/>
+      <c r="U131" s="8"/>
+      <c r="V131" s="8"/>
+      <c r="W131" s="8"/>
+      <c r="X131" s="8"/>
+      <c r="Y131" s="8"/>
+      <c r="Z131" s="8"/>
+    </row>
+    <row r="132" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
+    </row>
+    <row r="133" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="4"/>
+      <c r="C133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+    </row>
+    <row r="134" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+    </row>
+    <row r="135" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+    </row>
+    <row r="136" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
+      <c r="W136" s="8"/>
+      <c r="X136" s="8"/>
+      <c r="Y136" s="8"/>
+      <c r="Z136" s="8"/>
+    </row>
+    <row r="137" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+    </row>
+    <row r="138" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+      <c r="U138" s="8"/>
+      <c r="V138" s="8"/>
+      <c r="W138" s="8"/>
+      <c r="X138" s="8"/>
+      <c r="Y138" s="8"/>
+      <c r="Z138" s="8"/>
+    </row>
+    <row r="143" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="2"/>
+      <c r="X143" s="2"/>
+      <c r="Y143" s="2"/>
+      <c r="Z143" s="2"/>
+    </row>
+    <row r="144" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="8"/>
+      <c r="W145" s="8"/>
+      <c r="X145" s="8"/>
+      <c r="Y145" s="8"/>
+      <c r="Z145" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+      <c r="C146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+    </row>
+    <row r="147" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="8"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="8"/>
+      <c r="Z147" s="8"/>
+    </row>
+    <row r="148" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="10"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
+      <c r="U148" s="11"/>
+      <c r="V148" s="11"/>
+      <c r="W148" s="11"/>
+      <c r="X148" s="11"/>
+      <c r="Y148" s="11"/>
+      <c r="Z148" s="11"/>
+    </row>
+    <row r="149" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="V149" s="2"/>
+      <c r="W149" s="2"/>
+      <c r="X149" s="2"/>
+      <c r="Y149" s="2"/>
+      <c r="Z149" s="2"/>
+    </row>
+    <row r="150" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+    </row>
+    <row r="151" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+    </row>
+    <row r="152" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+    </row>
+    <row r="153" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+    </row>
+    <row r="154" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+    </row>
+    <row r="155" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+    </row>
+    <row r="156" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+    </row>
+    <row r="157" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+    </row>
+    <row r="158" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+    </row>
+    <row r="159" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="5"/>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
+      <c r="Y159" s="5"/>
+      <c r="Z159" s="5"/>
+    </row>
+    <row r="160" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+    </row>
+    <row r="161" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="8"/>
+      <c r="R161" s="8"/>
+      <c r="S161" s="8"/>
+      <c r="T161" s="8"/>
+      <c r="U161" s="8"/>
+      <c r="V161" s="8"/>
+      <c r="W161" s="8"/>
+      <c r="X161" s="8"/>
+      <c r="Y161" s="8"/>
+      <c r="Z161" s="8"/>
+    </row>
+    <row r="162" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="2"/>
+    </row>
+    <row r="163" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="4"/>
+      <c r="C163" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="5"/>
+      <c r="Y163" s="5"/>
+      <c r="Z163" s="5"/>
+    </row>
+    <row r="164" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
+      <c r="Y164" s="5"/>
+      <c r="Z164" s="5"/>
+    </row>
+    <row r="165" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+    </row>
+    <row r="166" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="7"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+      <c r="Q166" s="8"/>
+      <c r="R166" s="8"/>
+      <c r="S166" s="8"/>
+      <c r="T166" s="8"/>
+      <c r="U166" s="8"/>
+      <c r="V166" s="8"/>
+      <c r="W166" s="8"/>
+      <c r="X166" s="8"/>
+      <c r="Y166" s="8"/>
+      <c r="Z166" s="8"/>
+    </row>
+    <row r="167" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
+    </row>
+    <row r="168" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="7"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+      <c r="Q168" s="8"/>
+      <c r="R168" s="8"/>
+      <c r="S168" s="8"/>
+      <c r="T168" s="8"/>
+      <c r="U168" s="8"/>
+      <c r="V168" s="8"/>
+      <c r="W168" s="8"/>
+      <c r="X168" s="8"/>
+      <c r="Y168" s="8"/>
+      <c r="Z168" s="8"/>
+    </row>
+    <row r="169" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+    </row>
+    <row r="170" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+      <c r="V170" s="5"/>
+      <c r="W170" s="5"/>
+      <c r="X170" s="5"/>
+      <c r="Y170" s="5"/>
+      <c r="Z170" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+      <c r="Q171" s="8"/>
+      <c r="R171" s="8"/>
+      <c r="S171" s="8"/>
+      <c r="T171" s="8"/>
+      <c r="U171" s="8"/>
+      <c r="V171" s="8"/>
+      <c r="W171" s="8"/>
+      <c r="X171" s="8"/>
+      <c r="Y171" s="8"/>
+      <c r="Z171" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="1"/>
+      <c r="C172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2"/>
+      <c r="V172" s="2"/>
+      <c r="W172" s="2"/>
+      <c r="X172" s="2"/>
+      <c r="Y172" s="2"/>
+      <c r="Z172" s="2"/>
+    </row>
+    <row r="173" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="7"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="8"/>
+      <c r="N173" s="8"/>
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
+      <c r="Q173" s="8"/>
+      <c r="R173" s="8"/>
+      <c r="S173" s="8"/>
+      <c r="T173" s="8"/>
+      <c r="U173" s="8"/>
+      <c r="V173" s="8"/>
+      <c r="W173" s="8"/>
+      <c r="X173" s="8"/>
+      <c r="Y173" s="8"/>
+      <c r="Z173" s="8"/>
+    </row>
+    <row r="174" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="10"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="11"/>
+      <c r="S174" s="11"/>
+      <c r="T174" s="11"/>
+      <c r="U174" s="11"/>
+      <c r="V174" s="11"/>
+      <c r="W174" s="11"/>
+      <c r="X174" s="11"/>
+      <c r="Y174" s="11"/>
+      <c r="Z174" s="11"/>
+    </row>
+    <row r="175" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="1"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="2"/>
+      <c r="X175" s="2"/>
+      <c r="Y175" s="2"/>
+      <c r="Z175" s="2"/>
+    </row>
+    <row r="176" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
+      <c r="Y176" s="5"/>
+      <c r="Z176" s="5"/>
+    </row>
+    <row r="177" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5"/>
+      <c r="V177" s="5"/>
+      <c r="W177" s="5"/>
+      <c r="X177" s="5"/>
+      <c r="Y177" s="5"/>
+      <c r="Z177" s="5"/>
+    </row>
+    <row r="178" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="5"/>
+      <c r="S178" s="5"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="5"/>
+      <c r="V178" s="5"/>
+      <c r="W178" s="5"/>
+      <c r="X178" s="5"/>
+      <c r="Y178" s="5"/>
+      <c r="Z178" s="5"/>
+    </row>
+    <row r="179" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="5"/>
+      <c r="W179" s="5"/>
+      <c r="X179" s="5"/>
+      <c r="Y179" s="5"/>
+      <c r="Z179" s="5"/>
+    </row>
+    <row r="180" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="5"/>
+      <c r="V180" s="5"/>
+      <c r="W180" s="5"/>
+      <c r="X180" s="5"/>
+      <c r="Y180" s="5"/>
+      <c r="Z180" s="5"/>
+    </row>
+    <row r="181" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5"/>
+      <c r="V181" s="5"/>
+      <c r="W181" s="5"/>
+      <c r="X181" s="5"/>
+      <c r="Y181" s="5"/>
+      <c r="Z181" s="5"/>
+    </row>
+    <row r="182" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="5"/>
+      <c r="V182" s="5"/>
+      <c r="W182" s="5"/>
+      <c r="X182" s="5"/>
+      <c r="Y182" s="5"/>
+      <c r="Z182" s="5"/>
+    </row>
+    <row r="183" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5"/>
+      <c r="V183" s="5"/>
+      <c r="W183" s="5"/>
+      <c r="X183" s="5"/>
+      <c r="Y183" s="5"/>
+      <c r="Z183" s="5"/>
+    </row>
+    <row r="184" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="5"/>
+      <c r="V184" s="5"/>
+      <c r="W184" s="5"/>
+      <c r="X184" s="5"/>
+      <c r="Y184" s="5"/>
+      <c r="Z184" s="5"/>
+    </row>
+    <row r="185" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5"/>
+      <c r="V185" s="5"/>
+      <c r="W185" s="5"/>
+      <c r="X185" s="5"/>
+      <c r="Y185" s="5"/>
+      <c r="Z185" s="5"/>
+    </row>
+    <row r="186" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="5"/>
+      <c r="S186" s="5"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="5"/>
+      <c r="V186" s="5"/>
+      <c r="W186" s="5"/>
+      <c r="X186" s="5"/>
+      <c r="Y186" s="5"/>
+      <c r="Z186" s="5"/>
+    </row>
+    <row r="187" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="7"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+      <c r="Q187" s="8"/>
+      <c r="R187" s="8"/>
+      <c r="S187" s="8"/>
+      <c r="T187" s="8"/>
+      <c r="U187" s="8"/>
+      <c r="V187" s="8"/>
+      <c r="W187" s="8"/>
+      <c r="X187" s="8"/>
+      <c r="Y187" s="8"/>
+      <c r="Z187" s="8"/>
+    </row>
+    <row r="188" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="1"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2"/>
+      <c r="V188" s="2"/>
+      <c r="W188" s="2"/>
+      <c r="X188" s="2"/>
+      <c r="Y188" s="2"/>
+      <c r="Z188" s="2"/>
+    </row>
+    <row r="189" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="5"/>
+      <c r="V189" s="5"/>
+      <c r="W189" s="5"/>
+      <c r="X189" s="5"/>
+      <c r="Y189" s="5"/>
+      <c r="Z189" s="5"/>
+    </row>
+    <row r="190" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="4"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="5"/>
+      <c r="V190" s="5"/>
+      <c r="W190" s="5"/>
+      <c r="X190" s="5"/>
+      <c r="Y190" s="5"/>
+      <c r="Z190" s="5"/>
+    </row>
+    <row r="191" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="4"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5"/>
+      <c r="V191" s="5"/>
+      <c r="W191" s="5"/>
+      <c r="X191" s="5"/>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+    </row>
+    <row r="192" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="7"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="8"/>
+      <c r="N192" s="8"/>
+      <c r="O192" s="8"/>
+      <c r="P192" s="8"/>
+      <c r="Q192" s="8"/>
+      <c r="R192" s="8"/>
+      <c r="S192" s="8"/>
+      <c r="T192" s="8"/>
+      <c r="U192" s="8"/>
+      <c r="V192" s="8"/>
+      <c r="W192" s="8"/>
+      <c r="X192" s="8"/>
+      <c r="Y192" s="8"/>
+      <c r="Z192" s="8"/>
+    </row>
+    <row r="193" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="2"/>
+      <c r="X193" s="2"/>
+      <c r="Y193" s="2"/>
+      <c r="Z193" s="2"/>
+    </row>
+    <row r="194" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="7"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="8"/>
+      <c r="O194" s="8"/>
+      <c r="P194" s="8"/>
+      <c r="Q194" s="8"/>
+      <c r="R194" s="8"/>
+      <c r="S194" s="8"/>
+      <c r="T194" s="8"/>
+      <c r="U194" s="8"/>
+      <c r="V194" s="8"/>
+      <c r="W194" s="8"/>
+      <c r="X194" s="8"/>
+      <c r="Y194" s="8"/>
+      <c r="Z194" s="8"/>
+    </row>
+    <row r="199" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="2"/>
+      <c r="X199" s="2"/>
+      <c r="Y199" s="2"/>
+      <c r="Z199" s="2"/>
+    </row>
+    <row r="200" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
+      <c r="T200" s="5"/>
+      <c r="U200" s="5"/>
+      <c r="V200" s="5"/>
+      <c r="W200" s="5"/>
+      <c r="X200" s="5"/>
+      <c r="Y200" s="5"/>
+      <c r="Z200" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="7"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="8"/>
+      <c r="P201" s="8"/>
+      <c r="Q201" s="8"/>
+      <c r="R201" s="8"/>
+      <c r="S201" s="8"/>
+      <c r="T201" s="8"/>
+      <c r="U201" s="8"/>
+      <c r="V201" s="8"/>
+      <c r="W201" s="8"/>
+      <c r="X201" s="8"/>
+      <c r="Y201" s="8"/>
+      <c r="Z201" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+      <c r="C202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+      <c r="V202" s="2"/>
+      <c r="W202" s="2"/>
+      <c r="X202" s="2"/>
+      <c r="Y202" s="2"/>
+      <c r="Z202" s="2"/>
+    </row>
+    <row r="203" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="7"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="8"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
+      <c r="N203" s="8"/>
+      <c r="O203" s="8"/>
+      <c r="P203" s="8"/>
+      <c r="Q203" s="8"/>
+      <c r="R203" s="8"/>
+      <c r="S203" s="8"/>
+      <c r="T203" s="8"/>
+      <c r="U203" s="8"/>
+      <c r="V203" s="8"/>
+      <c r="W203" s="8"/>
+      <c r="X203" s="8"/>
+      <c r="Y203" s="8"/>
+      <c r="Z203" s="8"/>
+    </row>
+    <row r="204" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="10"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
+      <c r="Q204" s="11"/>
+      <c r="R204" s="11"/>
+      <c r="S204" s="11"/>
+      <c r="T204" s="11"/>
+      <c r="U204" s="11"/>
+      <c r="V204" s="11"/>
+      <c r="W204" s="11"/>
+      <c r="X204" s="11"/>
+      <c r="Y204" s="11"/>
+      <c r="Z204" s="11"/>
+    </row>
+    <row r="205" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="1"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+      <c r="V205" s="2"/>
+      <c r="W205" s="2"/>
+      <c r="X205" s="2"/>
+      <c r="Y205" s="2"/>
+      <c r="Z205" s="2"/>
+    </row>
+    <row r="206" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5"/>
+      <c r="V206" s="5"/>
+      <c r="W206" s="5"/>
+      <c r="X206" s="5"/>
+      <c r="Y206" s="5"/>
+      <c r="Z206" s="5"/>
+    </row>
+    <row r="207" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="5"/>
+      <c r="S207" s="5"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="5"/>
+      <c r="V207" s="5"/>
+      <c r="W207" s="5"/>
+      <c r="X207" s="5"/>
+      <c r="Y207" s="5"/>
+      <c r="Z207" s="5"/>
+    </row>
+    <row r="208" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
+      <c r="R208" s="5"/>
+      <c r="S208" s="5"/>
+      <c r="T208" s="5"/>
+      <c r="U208" s="5"/>
+      <c r="V208" s="5"/>
+      <c r="W208" s="5"/>
+      <c r="X208" s="5"/>
+      <c r="Y208" s="5"/>
+      <c r="Z208" s="5"/>
+    </row>
+    <row r="209" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="5"/>
+      <c r="S209" s="5"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="5"/>
+      <c r="V209" s="5"/>
+      <c r="W209" s="5"/>
+      <c r="X209" s="5"/>
+      <c r="Y209" s="5"/>
+      <c r="Z209" s="5"/>
+    </row>
+    <row r="210" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5"/>
+      <c r="V210" s="5"/>
+      <c r="W210" s="5"/>
+      <c r="X210" s="5"/>
+      <c r="Y210" s="5"/>
+      <c r="Z210" s="5"/>
+    </row>
+    <row r="211" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+      <c r="R211" s="5"/>
+      <c r="S211" s="5"/>
+      <c r="T211" s="5"/>
+      <c r="U211" s="5"/>
+      <c r="V211" s="5"/>
+      <c r="W211" s="5"/>
+      <c r="X211" s="5"/>
+      <c r="Y211" s="5"/>
+      <c r="Z211" s="5"/>
+    </row>
+    <row r="212" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="5"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="5"/>
+      <c r="V212" s="5"/>
+      <c r="W212" s="5"/>
+      <c r="X212" s="5"/>
+      <c r="Y212" s="5"/>
+      <c r="Z212" s="5"/>
+    </row>
+    <row r="213" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5"/>
+      <c r="V213" s="5"/>
+      <c r="W213" s="5"/>
+      <c r="X213" s="5"/>
+      <c r="Y213" s="5"/>
+      <c r="Z213" s="5"/>
+    </row>
+    <row r="214" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="5"/>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="5"/>
+      <c r="S214" s="5"/>
+      <c r="T214" s="5"/>
+      <c r="U214" s="5"/>
+      <c r="V214" s="5"/>
+      <c r="W214" s="5"/>
+      <c r="X214" s="5"/>
+      <c r="Y214" s="5"/>
+      <c r="Z214" s="5"/>
+    </row>
+    <row r="215" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="4"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
+      <c r="M215" s="5"/>
+      <c r="N215" s="5"/>
+      <c r="O215" s="5"/>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="5"/>
+      <c r="S215" s="5"/>
+      <c r="T215" s="5"/>
+      <c r="U215" s="5"/>
+      <c r="V215" s="5"/>
+      <c r="W215" s="5"/>
+      <c r="X215" s="5"/>
+      <c r="Y215" s="5"/>
+      <c r="Z215" s="5"/>
+    </row>
+    <row r="216" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="4"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5"/>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+      <c r="S216" s="5"/>
+      <c r="T216" s="5"/>
+      <c r="U216" s="5"/>
+      <c r="V216" s="5"/>
+      <c r="W216" s="5"/>
+      <c r="X216" s="5"/>
+      <c r="Y216" s="5"/>
+      <c r="Z216" s="5"/>
+    </row>
+    <row r="217" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="7"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
+      <c r="J217" s="8"/>
+      <c r="K217" s="8"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="8"/>
+      <c r="N217" s="8"/>
+      <c r="O217" s="8"/>
+      <c r="P217" s="8"/>
+      <c r="Q217" s="8"/>
+      <c r="R217" s="8"/>
+      <c r="S217" s="8"/>
+      <c r="T217" s="8"/>
+      <c r="U217" s="8"/>
+      <c r="V217" s="8"/>
+      <c r="W217" s="8"/>
+      <c r="X217" s="8"/>
+      <c r="Y217" s="8"/>
+      <c r="Z217" s="8"/>
+    </row>
+    <row r="218" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="1"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2"/>
+      <c r="V218" s="2"/>
+      <c r="W218" s="2"/>
+      <c r="X218" s="2"/>
+      <c r="Y218" s="2"/>
+      <c r="Z218" s="2"/>
+    </row>
+    <row r="219" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5"/>
+      <c r="V219" s="5"/>
+      <c r="W219" s="5"/>
+      <c r="X219" s="5"/>
+      <c r="Y219" s="5"/>
+      <c r="Z219" s="5"/>
+    </row>
+    <row r="220" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
+      <c r="U220" s="5"/>
+      <c r="V220" s="5"/>
+      <c r="W220" s="5"/>
+      <c r="X220" s="5"/>
+      <c r="Y220" s="5"/>
+      <c r="Z220" s="5"/>
+    </row>
+    <row r="221" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+      <c r="U221" s="5"/>
+      <c r="V221" s="5"/>
+      <c r="W221" s="5"/>
+      <c r="X221" s="5"/>
+      <c r="Y221" s="5"/>
+      <c r="Z221" s="5"/>
+    </row>
+    <row r="222" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="7"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
+      <c r="J222" s="8"/>
+      <c r="K222" s="8"/>
+      <c r="L222" s="8"/>
+      <c r="M222" s="8"/>
+      <c r="N222" s="8"/>
+      <c r="O222" s="8"/>
+      <c r="P222" s="8"/>
+      <c r="Q222" s="8"/>
+      <c r="R222" s="8"/>
+      <c r="S222" s="8"/>
+      <c r="T222" s="8"/>
+      <c r="U222" s="8"/>
+      <c r="V222" s="8"/>
+      <c r="W222" s="8"/>
+      <c r="X222" s="8"/>
+      <c r="Y222" s="8"/>
+      <c r="Z222" s="8"/>
+    </row>
+    <row r="223" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="1"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="2"/>
+      <c r="V223" s="2"/>
+      <c r="W223" s="2"/>
+      <c r="X223" s="2"/>
+      <c r="Y223" s="2"/>
+      <c r="Z223" s="2"/>
+    </row>
+    <row r="224" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="7"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+      <c r="J224" s="8"/>
+      <c r="K224" s="8"/>
+      <c r="L224" s="8"/>
+      <c r="M224" s="8"/>
+      <c r="N224" s="8"/>
+      <c r="O224" s="8"/>
+      <c r="P224" s="8"/>
+      <c r="Q224" s="8"/>
+      <c r="R224" s="8"/>
+      <c r="S224" s="8"/>
+      <c r="T224" s="8"/>
+      <c r="U224" s="8"/>
+      <c r="V224" s="8"/>
+      <c r="W224" s="8"/>
+      <c r="X224" s="8"/>
+      <c r="Y224" s="8"/>
+      <c r="Z224" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
